--- a/Cube_data.xlsx
+++ b/Cube_data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beard\Desktop\Python Programs\Class Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beard\Desktop\Python Programs\Class Project\Projectile_Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AD4408-F528-40D6-BF5F-29269D425013}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FA87E7-FC5C-481D-9F72-FBEAC90E846D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{7B512D39-7C0B-4639-A4ED-54B7F643E4BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Real" sheetId="1" r:id="rId1"/>
+    <sheet name="Fake" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Distance to Target</t>
   </si>
@@ -97,7 +98,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -127,25 +140,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6BAFBE7-BDED-4A9E-982F-4F61FE03EFDF}" name="Table1" displayName="Table1" ref="A1:H31" totalsRowShown="0">
-  <autoFilter ref="A1:H31" xr:uid="{867335CA-0F7E-4F6F-AF74-7E4BF4706EA4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6BAFBE7-BDED-4A9E-982F-4F61FE03EFDF}" name="Table1" displayName="Table1" ref="A1:H121" totalsRowShown="0">
+  <autoFilter ref="A1:H121" xr:uid="{867335CA-0F7E-4F6F-AF74-7E4BF4706EA4}"/>
   <tableColumns count="8">
-    <tableColumn id="11" xr3:uid="{19F38E76-A149-43BB-984C-067C887087A8}" name="Velocity Recorded" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{19F38E76-A149-43BB-984C-067C887087A8}" name="Velocity Recorded" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{4FA734E1-CFC6-4566-9D37-F4DC6475ED8F}" name="Velocity Needed"/>
-    <tableColumn id="2" xr3:uid="{B0B297BA-EAD2-41A2-A2B8-7AC2F879B178}" name="Powder load" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{B0B297BA-EAD2-41A2-A2B8-7AC2F879B178}" name="Powder load" dataDxfId="7">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{2C98F68A-45E9-462B-BE17-2106017EB690}" name="Weight of Threat"/>
-    <tableColumn id="4" xr3:uid="{C48BA3EC-9217-4E71-B611-F38CC3F4C23B}" name="Humidity" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{C48BA3EC-9217-4E71-B611-F38CC3F4C23B}" name="Humidity" dataDxfId="6">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{15BB54DD-E055-4745-B8C6-2F14EA56794C}" name="Sabot Orientation" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{15BB54DD-E055-4745-B8C6-2F14EA56794C}" name="Sabot Orientation" dataDxfId="5">
       <calculatedColumnFormula>RANDBETWEEN(0,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{1142B9DF-BF60-420B-AE91-0B17C33A8AE5}" name="Distance to Target"/>
-    <tableColumn id="7" xr3:uid="{852DA65A-35DF-4253-924A-448489E81C03}" name="Temperature" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{852DA65A-35DF-4253-924A-448489E81C03}" name="Temperature" dataDxfId="4">
+      <calculatedColumnFormula>RANDBETWEEN(10,90)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A89AFF24-EDBA-41C6-84B7-ECECD7924A6D}" name="Table13" displayName="Table13" ref="A1:G121" totalsRowShown="0">
+  <autoFilter ref="A1:G121" xr:uid="{867335CA-0F7E-4F6F-AF74-7E4BF4706EA4}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B05F6DA5-AFEA-42B0-951D-A9256B48450A}" name="Velocity Needed"/>
+    <tableColumn id="2" xr3:uid="{A530C670-D961-4F47-877A-E9A98983C585}" name="Powder load" dataDxfId="3">
+      <calculatedColumnFormula>IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{DAA78ABC-6EFE-4874-9EBA-87D482E8E971}" name="Weight of Threat"/>
+    <tableColumn id="4" xr3:uid="{5A96DA09-EAD3-4A2C-91DA-2C99E9198C6B}" name="Humidity" dataDxfId="2">
+      <calculatedColumnFormula>IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{55DCD633-0B39-48D5-812E-7AC119D9FFC6}" name="Sabot Orientation" dataDxfId="1">
+      <calculatedColumnFormula>RANDBETWEEN(0,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6A7CA8E4-3444-4AF9-89D1-55F24B05D313}" name="Distance to Target"/>
+    <tableColumn id="7" xr3:uid="{4A3F85A5-0F92-4C9F-8B0D-AC78ADBD0177}" name="Temperature" dataDxfId="0">
       <calculatedColumnFormula>RANDBETWEEN(10,90)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -450,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF8CCBF-007A-4494-8450-CF5E7BB0B3DD}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="L128" sqref="L128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,83 +527,83 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5008</v>
+        <v>4849</v>
       </c>
       <c r="B2">
         <v>5000</v>
       </c>
       <c r="C2">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2198</v>
+        <v>2555</v>
       </c>
       <c r="D2">
         <v>75</v>
       </c>
       <c r="E2">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F31" ca="1" si="0">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>15</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H31" ca="1" si="1">RANDBETWEEN(10,90)</f>
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6097</v>
+        <v>5826</v>
       </c>
       <c r="B3">
         <v>6000</v>
       </c>
       <c r="C3">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2951</v>
+        <v>2271</v>
       </c>
       <c r="D3">
         <v>75</v>
       </c>
       <c r="E3">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>15</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6973</v>
+        <v>6860</v>
       </c>
       <c r="B4">
         <v>7000</v>
       </c>
       <c r="C4">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2571</v>
+        <v>2555</v>
       </c>
       <c r="D4">
         <v>75</v>
       </c>
       <c r="E4">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
@@ -577,20 +614,20 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5114</v>
+        <v>4870</v>
       </c>
       <c r="B5">
         <v>5000</v>
       </c>
       <c r="C5">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2796</v>
+        <v>2313</v>
       </c>
       <c r="D5">
         <v>75</v>
@@ -601,34 +638,34 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>15</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5997</v>
+        <v>5902</v>
       </c>
       <c r="B6">
         <v>6000</v>
       </c>
       <c r="C6">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2477</v>
+        <v>2710</v>
       </c>
       <c r="D6">
         <v>75</v>
       </c>
       <c r="E6">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
@@ -639,120 +676,120 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7055</v>
+        <v>6806</v>
       </c>
       <c r="B7">
         <v>7000</v>
       </c>
       <c r="C7">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4876</v>
+        <v>4530</v>
       </c>
       <c r="D7">
         <v>75</v>
       </c>
       <c r="E7">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>23</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5095</v>
+        <v>5068</v>
       </c>
       <c r="B8">
         <v>5000</v>
       </c>
       <c r="C8">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5233</v>
+        <v>4290</v>
       </c>
       <c r="D8">
         <v>75</v>
       </c>
       <c r="E8">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>23</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6065</v>
+        <v>5858</v>
       </c>
       <c r="B9">
         <v>6000</v>
       </c>
       <c r="C9">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4627</v>
+        <v>5468</v>
       </c>
       <c r="D9">
         <v>75</v>
       </c>
       <c r="E9">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>23</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6970</v>
+        <v>6852</v>
       </c>
       <c r="B10">
         <v>7000</v>
       </c>
       <c r="C10">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4133</v>
+        <v>4806</v>
       </c>
       <c r="D10">
         <v>75</v>
       </c>
       <c r="E10">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
@@ -763,58 +800,58 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5006</v>
+        <v>4973</v>
       </c>
       <c r="B11">
         <v>5000</v>
       </c>
       <c r="C11">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4528</v>
+        <v>4249</v>
       </c>
       <c r="D11">
         <v>75</v>
       </c>
       <c r="E11">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>23</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6042</v>
+        <v>5880</v>
       </c>
       <c r="B12">
         <v>6000</v>
       </c>
       <c r="C12">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6005</v>
+        <v>6026</v>
       </c>
       <c r="D12">
         <v>75</v>
       </c>
       <c r="E12">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
@@ -825,27 +862,27 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7097</v>
+        <v>7160</v>
       </c>
       <c r="B13">
         <v>7000</v>
       </c>
       <c r="C13">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6720</v>
+        <v>6451</v>
       </c>
       <c r="D13">
         <v>75</v>
       </c>
       <c r="E13">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
@@ -856,89 +893,89 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5068</v>
+        <v>4983</v>
       </c>
       <c r="B14">
         <v>5000</v>
       </c>
       <c r="C14">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6759</v>
+        <v>7084</v>
       </c>
       <c r="D14">
         <v>75</v>
       </c>
       <c r="E14">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>65</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5875</v>
+        <v>5948</v>
       </c>
       <c r="B15">
         <v>6000</v>
       </c>
       <c r="C15">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6222</v>
+        <v>6648</v>
       </c>
       <c r="D15">
         <v>75</v>
       </c>
       <c r="E15">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>65</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7197</v>
+        <v>7085</v>
       </c>
       <c r="B16">
         <v>7000</v>
       </c>
       <c r="C16">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6011</v>
+        <v>6016</v>
       </c>
       <c r="D16">
         <v>75</v>
       </c>
       <c r="E16">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
@@ -949,124 +986,124 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5190</v>
+        <v>5160</v>
       </c>
       <c r="B17">
         <v>5000</v>
       </c>
       <c r="C17">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2270</v>
+        <v>2838</v>
       </c>
       <c r="D17">
         <v>150</v>
       </c>
       <c r="E17">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>15</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6075</v>
+        <v>6017</v>
       </c>
       <c r="B18">
         <v>6000</v>
       </c>
       <c r="C18">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2435</v>
+        <v>2662</v>
       </c>
       <c r="D18">
         <v>150</v>
       </c>
       <c r="E18">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>15</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7073</v>
+        <v>6921</v>
       </c>
       <c r="B19">
         <v>7000</v>
       </c>
       <c r="C19">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2051</v>
+        <v>2368</v>
       </c>
       <c r="D19">
         <v>150</v>
       </c>
       <c r="E19">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>15</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5001</v>
+        <v>5064</v>
       </c>
       <c r="B20">
         <v>5000</v>
       </c>
       <c r="C20">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2876</v>
+        <v>2938</v>
       </c>
       <c r="D20">
         <v>150</v>
       </c>
       <c r="E20">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>15</v>
@@ -1079,52 +1116,52 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5977</v>
+        <v>6061</v>
       </c>
       <c r="B21">
         <v>6000</v>
       </c>
       <c r="C21">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2618</v>
+        <v>2291</v>
       </c>
       <c r="D21">
         <v>150</v>
       </c>
       <c r="E21">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>15</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7186</v>
+        <v>7180</v>
       </c>
       <c r="B22">
         <v>7000</v>
       </c>
       <c r="C22">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4168</v>
+        <v>5235</v>
       </c>
       <c r="D22">
         <v>150</v>
       </c>
       <c r="E22">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
@@ -1135,27 +1172,27 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4927</v>
+        <v>5188</v>
       </c>
       <c r="B23">
         <v>5000</v>
       </c>
       <c r="C23">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4776</v>
+        <v>5388</v>
       </c>
       <c r="D23">
         <v>150</v>
       </c>
       <c r="E23">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
@@ -1166,27 +1203,27 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6024</v>
+        <v>6161</v>
       </c>
       <c r="B24">
         <v>6000</v>
       </c>
       <c r="C24">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4289</v>
+        <v>4867</v>
       </c>
       <c r="D24">
         <v>150</v>
       </c>
       <c r="E24">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
@@ -1197,58 +1234,58 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7134</v>
+        <v>7074</v>
       </c>
       <c r="B25">
         <v>7000</v>
       </c>
       <c r="C25">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5029</v>
+        <v>5455</v>
       </c>
       <c r="D25">
         <v>150</v>
       </c>
       <c r="E25">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>23</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4833</v>
+        <v>5064</v>
       </c>
       <c r="B26">
         <v>5000</v>
       </c>
       <c r="C26">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4672</v>
+        <v>4334</v>
       </c>
       <c r="D26">
         <v>150</v>
       </c>
       <c r="E26">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
@@ -1259,51 +1296,51 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5913</v>
+        <v>5950</v>
       </c>
       <c r="B27">
         <v>6000</v>
       </c>
       <c r="C27">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6969</v>
+        <v>6932</v>
       </c>
       <c r="D27">
         <v>150</v>
       </c>
       <c r="E27">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>65</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7189</v>
+        <v>6955</v>
       </c>
       <c r="B28">
         <v>7000</v>
       </c>
       <c r="C28">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7039</v>
+        <v>7301</v>
       </c>
       <c r="D28">
         <v>150</v>
@@ -1321,58 +1358,58 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4944</v>
+        <v>5137</v>
       </c>
       <c r="B29">
         <v>5000</v>
       </c>
       <c r="C29">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7035</v>
+        <v>6846</v>
       </c>
       <c r="D29">
         <v>150</v>
       </c>
       <c r="E29">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>65</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5868</v>
+        <v>5841</v>
       </c>
       <c r="B30">
         <v>6000</v>
       </c>
       <c r="C30">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7019</v>
+        <v>6634</v>
       </c>
       <c r="D30">
         <v>150</v>
       </c>
       <c r="E30">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
@@ -1383,38 +1420,6113 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7150</v>
+        <v>6826</v>
       </c>
       <c r="B31">
         <v>7000</v>
       </c>
       <c r="C31">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7354</v>
+        <v>6610</v>
       </c>
       <c r="D31">
         <v>150</v>
       </c>
       <c r="E31">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>65</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4833</v>
+      </c>
+      <c r="B32">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2969</v>
+      </c>
+      <c r="D32">
+        <v>75</v>
+      </c>
+      <c r="E32" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" ref="F32:F47" ca="1" si="2">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" ref="H32:H47" ca="1" si="3">RANDBETWEEN(10,90)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5816</v>
+      </c>
+      <c r="B33">
+        <v>6000</v>
+      </c>
+      <c r="C33" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2335</v>
+      </c>
+      <c r="D33">
+        <v>75</v>
+      </c>
+      <c r="E33" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>20</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6932</v>
+      </c>
+      <c r="B34">
+        <v>7000</v>
+      </c>
+      <c r="C34" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2963</v>
+      </c>
+      <c r="D34">
+        <v>75</v>
+      </c>
+      <c r="E34" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>10</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5110</v>
+      </c>
+      <c r="B35">
+        <v>5000</v>
+      </c>
+      <c r="C35" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2702</v>
+      </c>
+      <c r="D35">
+        <v>75</v>
+      </c>
+      <c r="E35" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>78</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5997</v>
+      </c>
+      <c r="B36">
+        <v>6000</v>
+      </c>
+      <c r="C36" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2632</v>
+      </c>
+      <c r="D36">
+        <v>75</v>
+      </c>
+      <c r="E36" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>69</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6950</v>
+      </c>
+      <c r="B37">
+        <v>7000</v>
+      </c>
+      <c r="C37" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5131</v>
+      </c>
+      <c r="D37">
+        <v>75</v>
+      </c>
+      <c r="E37" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>23</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5042</v>
+      </c>
+      <c r="B38">
+        <v>5000</v>
+      </c>
+      <c r="C38" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4684</v>
+      </c>
+      <c r="D38">
+        <v>75</v>
+      </c>
+      <c r="E38" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>75</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>23</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6072</v>
+      </c>
+      <c r="B39">
+        <v>6000</v>
+      </c>
+      <c r="C39" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4427</v>
+      </c>
+      <c r="D39">
+        <v>75</v>
+      </c>
+      <c r="E39" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>76</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>23</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6933</v>
+      </c>
+      <c r="B40">
+        <v>7000</v>
+      </c>
+      <c r="C40" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4977</v>
+      </c>
+      <c r="D40">
+        <v>75</v>
+      </c>
+      <c r="E40" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>63</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>23</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5185</v>
+      </c>
+      <c r="B41">
+        <v>5000</v>
+      </c>
+      <c r="C41" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4309</v>
+      </c>
+      <c r="D41">
+        <v>75</v>
+      </c>
+      <c r="E41" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>72</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>23</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6145</v>
+      </c>
+      <c r="B42">
+        <v>6000</v>
+      </c>
+      <c r="C42" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6429</v>
+      </c>
+      <c r="D42">
+        <v>75</v>
+      </c>
+      <c r="E42" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>65</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7171</v>
+      </c>
+      <c r="B43">
+        <v>7000</v>
+      </c>
+      <c r="C43" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7235</v>
+      </c>
+      <c r="D43">
+        <v>75</v>
+      </c>
+      <c r="E43" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>17</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>65</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4966</v>
+      </c>
+      <c r="B44">
+        <v>5000</v>
+      </c>
+      <c r="C44" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7406</v>
+      </c>
+      <c r="D44">
+        <v>75</v>
+      </c>
+      <c r="E44" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>9</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>65</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5988</v>
+      </c>
+      <c r="B45">
+        <v>6000</v>
+      </c>
+      <c r="C45" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6871</v>
+      </c>
+      <c r="D45">
+        <v>75</v>
+      </c>
+      <c r="E45" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>66</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>65</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7087</v>
+      </c>
+      <c r="B46">
+        <v>7000</v>
+      </c>
+      <c r="C46" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6494</v>
+      </c>
+      <c r="D46">
+        <v>75</v>
+      </c>
+      <c r="E46" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>61</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>65</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5081</v>
+      </c>
+      <c r="B47">
+        <v>5000</v>
+      </c>
+      <c r="C47" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2648</v>
+      </c>
+      <c r="D47">
+        <v>150</v>
+      </c>
+      <c r="E47" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>70</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>15</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6120</v>
+      </c>
+      <c r="B48">
+        <v>6000</v>
+      </c>
+      <c r="C48" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2659</v>
+      </c>
+      <c r="D48">
+        <v>150</v>
+      </c>
+      <c r="E48" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>19</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" ref="F48:F79" ca="1" si="4">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>15</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" ref="H48:H79" ca="1" si="5">RANDBETWEEN(10,90)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6969</v>
+      </c>
+      <c r="B49">
+        <v>7000</v>
+      </c>
+      <c r="C49" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2807</v>
+      </c>
+      <c r="D49">
+        <v>150</v>
+      </c>
+      <c r="E49" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>78</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>15</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5117</v>
+      </c>
+      <c r="B50">
+        <v>5000</v>
+      </c>
+      <c r="C50" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2374</v>
+      </c>
+      <c r="D50">
+        <v>150</v>
+      </c>
+      <c r="E50" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>14</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>15</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" ca="1" si="5"/>
         <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5969</v>
+      </c>
+      <c r="B51">
+        <v>6000</v>
+      </c>
+      <c r="C51" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2472</v>
+      </c>
+      <c r="D51">
+        <v>150</v>
+      </c>
+      <c r="E51" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>65</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>15</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7177</v>
+      </c>
+      <c r="B52">
+        <v>7000</v>
+      </c>
+      <c r="C52" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5453</v>
+      </c>
+      <c r="D52">
+        <v>150</v>
+      </c>
+      <c r="E52" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>79</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>23</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5130</v>
+      </c>
+      <c r="B53">
+        <v>5000</v>
+      </c>
+      <c r="C53" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5131</v>
+      </c>
+      <c r="D53">
+        <v>150</v>
+      </c>
+      <c r="E53" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>72</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>23</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6106</v>
+      </c>
+      <c r="B54">
+        <v>6000</v>
+      </c>
+      <c r="C54" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5103</v>
+      </c>
+      <c r="D54">
+        <v>150</v>
+      </c>
+      <c r="E54" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>14</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>23</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6915</v>
+      </c>
+      <c r="B55">
+        <v>7000</v>
+      </c>
+      <c r="C55" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4973</v>
+      </c>
+      <c r="D55">
+        <v>150</v>
+      </c>
+      <c r="E55" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>67</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>23</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4938</v>
+      </c>
+      <c r="B56">
+        <v>5000</v>
+      </c>
+      <c r="C56" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4674</v>
+      </c>
+      <c r="D56">
+        <v>150</v>
+      </c>
+      <c r="E56" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>8</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>23</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5999</v>
+      </c>
+      <c r="B57">
+        <v>6000</v>
+      </c>
+      <c r="C57" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6323</v>
+      </c>
+      <c r="D57">
+        <v>150</v>
+      </c>
+      <c r="E57" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>10</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>65</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7134</v>
+      </c>
+      <c r="B58">
+        <v>7000</v>
+      </c>
+      <c r="C58" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6712</v>
+      </c>
+      <c r="D58">
+        <v>150</v>
+      </c>
+      <c r="E58" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>14</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>65</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4980</v>
+      </c>
+      <c r="B59">
+        <v>5000</v>
+      </c>
+      <c r="C59" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6531</v>
+      </c>
+      <c r="D59">
+        <v>150</v>
+      </c>
+      <c r="E59" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>65</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6147</v>
+      </c>
+      <c r="B60">
+        <v>6000</v>
+      </c>
+      <c r="C60" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7471</v>
+      </c>
+      <c r="D60">
+        <v>150</v>
+      </c>
+      <c r="E60" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>11</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>65</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7069</v>
+      </c>
+      <c r="B61">
+        <v>7000</v>
+      </c>
+      <c r="C61" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6529</v>
+      </c>
+      <c r="D61">
+        <v>150</v>
+      </c>
+      <c r="E61" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>76</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>65</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5127</v>
+      </c>
+      <c r="B62">
+        <v>5000</v>
+      </c>
+      <c r="C62" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2805</v>
+      </c>
+      <c r="D62">
+        <v>75</v>
+      </c>
+      <c r="E62" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>77</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>15</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5956</v>
+      </c>
+      <c r="B63">
+        <v>6000</v>
+      </c>
+      <c r="C63" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2564</v>
+      </c>
+      <c r="D63">
+        <v>75</v>
+      </c>
+      <c r="E63" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>13</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>15</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7055</v>
+      </c>
+      <c r="B64">
+        <v>7000</v>
+      </c>
+      <c r="C64" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2733</v>
+      </c>
+      <c r="D64">
+        <v>75</v>
+      </c>
+      <c r="E64" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>16</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>15</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5016</v>
+      </c>
+      <c r="B65">
+        <v>5000</v>
+      </c>
+      <c r="C65" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2525</v>
+      </c>
+      <c r="D65">
+        <v>75</v>
+      </c>
+      <c r="E65" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>14</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>15</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5850</v>
+      </c>
+      <c r="B66">
+        <v>6000</v>
+      </c>
+      <c r="C66" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2427</v>
+      </c>
+      <c r="D66">
+        <v>75</v>
+      </c>
+      <c r="E66" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>14</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>15</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7119</v>
+      </c>
+      <c r="B67">
+        <v>7000</v>
+      </c>
+      <c r="C67" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5460</v>
+      </c>
+      <c r="D67">
+        <v>75</v>
+      </c>
+      <c r="E67" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>73</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>23</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4944</v>
+      </c>
+      <c r="B68">
+        <v>5000</v>
+      </c>
+      <c r="C68" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4045</v>
+      </c>
+      <c r="D68">
+        <v>75</v>
+      </c>
+      <c r="E68" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>5</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>23</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6088</v>
+      </c>
+      <c r="B69">
+        <v>6000</v>
+      </c>
+      <c r="C69" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4061</v>
+      </c>
+      <c r="D69">
+        <v>75</v>
+      </c>
+      <c r="E69" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>23</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6837</v>
+      </c>
+      <c r="B70">
+        <v>7000</v>
+      </c>
+      <c r="C70" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4401</v>
+      </c>
+      <c r="D70">
+        <v>75</v>
+      </c>
+      <c r="E70" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>76</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>23</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4969</v>
+      </c>
+      <c r="B71">
+        <v>5000</v>
+      </c>
+      <c r="C71" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5198</v>
+      </c>
+      <c r="D71">
+        <v>75</v>
+      </c>
+      <c r="E71" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>67</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>23</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6092</v>
+      </c>
+      <c r="B72">
+        <v>6000</v>
+      </c>
+      <c r="C72" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6380</v>
+      </c>
+      <c r="D72">
+        <v>75</v>
+      </c>
+      <c r="E72" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>4</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>65</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6852</v>
+      </c>
+      <c r="B73">
+        <v>7000</v>
+      </c>
+      <c r="C73" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6281</v>
+      </c>
+      <c r="D73">
+        <v>75</v>
+      </c>
+      <c r="E73" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>71</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>65</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5079</v>
+      </c>
+      <c r="B74">
+        <v>5000</v>
+      </c>
+      <c r="C74" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7041</v>
+      </c>
+      <c r="D74">
+        <v>75</v>
+      </c>
+      <c r="E74" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>61</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>65</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5973</v>
+      </c>
+      <c r="B75">
+        <v>6000</v>
+      </c>
+      <c r="C75" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6959</v>
+      </c>
+      <c r="D75">
+        <v>75</v>
+      </c>
+      <c r="E75" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>71</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>65</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6964</v>
+      </c>
+      <c r="B76">
+        <v>7000</v>
+      </c>
+      <c r="C76" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6936</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="E76" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>10</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>65</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4800</v>
+      </c>
+      <c r="B77">
+        <v>5000</v>
+      </c>
+      <c r="C77" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2718</v>
+      </c>
+      <c r="D77">
+        <v>150</v>
+      </c>
+      <c r="E77" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>15</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6131</v>
+      </c>
+      <c r="B78">
+        <v>6000</v>
+      </c>
+      <c r="C78" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2900</v>
+      </c>
+      <c r="D78">
+        <v>150</v>
+      </c>
+      <c r="E78" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>64</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>15</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6998</v>
+      </c>
+      <c r="B79">
+        <v>7000</v>
+      </c>
+      <c r="C79" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2941</v>
+      </c>
+      <c r="D79">
+        <v>150</v>
+      </c>
+      <c r="E79" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>3</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>15</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4940</v>
+      </c>
+      <c r="B80">
+        <v>5000</v>
+      </c>
+      <c r="C80" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2565</v>
+      </c>
+      <c r="D80">
+        <v>150</v>
+      </c>
+      <c r="E80" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>75</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" ref="F80:F101" ca="1" si="6">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>15</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" ref="H80:H101" ca="1" si="7">RANDBETWEEN(10,90)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5956</v>
+      </c>
+      <c r="B81">
+        <v>6000</v>
+      </c>
+      <c r="C81" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2236</v>
+      </c>
+      <c r="D81">
+        <v>150</v>
+      </c>
+      <c r="E81" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>2</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>15</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6939</v>
+      </c>
+      <c r="B82">
+        <v>7000</v>
+      </c>
+      <c r="C82" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4403</v>
+      </c>
+      <c r="D82">
+        <v>150</v>
+      </c>
+      <c r="E82" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>77</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>23</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4913</v>
+      </c>
+      <c r="B83">
+        <v>5000</v>
+      </c>
+      <c r="C83" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4501</v>
+      </c>
+      <c r="D83">
+        <v>150</v>
+      </c>
+      <c r="E83" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>19</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>23</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6166</v>
+      </c>
+      <c r="B84">
+        <v>6000</v>
+      </c>
+      <c r="C84" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4278</v>
+      </c>
+      <c r="D84">
+        <v>150</v>
+      </c>
+      <c r="E84" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>68</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>23</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6938</v>
+      </c>
+      <c r="B85">
+        <v>7000</v>
+      </c>
+      <c r="C85" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4666</v>
+      </c>
+      <c r="D85">
+        <v>150</v>
+      </c>
+      <c r="E85" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>13</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>23</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5114</v>
+      </c>
+      <c r="B86">
+        <v>5000</v>
+      </c>
+      <c r="C86" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5111</v>
+      </c>
+      <c r="D86">
+        <v>150</v>
+      </c>
+      <c r="E86" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>72</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>23</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6124</v>
+      </c>
+      <c r="B87">
+        <v>6000</v>
+      </c>
+      <c r="C87" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6760</v>
+      </c>
+      <c r="D87">
+        <v>150</v>
+      </c>
+      <c r="E87" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>3</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>65</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7035</v>
+      </c>
+      <c r="B88">
+        <v>7000</v>
+      </c>
+      <c r="C88" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7325</v>
+      </c>
+      <c r="D88">
+        <v>150</v>
+      </c>
+      <c r="E88" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>63</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>65</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5023</v>
+      </c>
+      <c r="B89">
+        <v>5000</v>
+      </c>
+      <c r="C89" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6364</v>
+      </c>
+      <c r="D89">
+        <v>150</v>
+      </c>
+      <c r="E89" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>68</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>65</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5947</v>
+      </c>
+      <c r="B90">
+        <v>6000</v>
+      </c>
+      <c r="C90" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7263</v>
+      </c>
+      <c r="D90">
+        <v>150</v>
+      </c>
+      <c r="E90" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>69</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>65</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6964</v>
+      </c>
+      <c r="B91">
+        <v>7000</v>
+      </c>
+      <c r="C91" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6599</v>
+      </c>
+      <c r="D91">
+        <v>150</v>
+      </c>
+      <c r="E91" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>69</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>65</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4831</v>
+      </c>
+      <c r="B92">
+        <v>5000</v>
+      </c>
+      <c r="C92" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2109</v>
+      </c>
+      <c r="D92">
+        <v>75</v>
+      </c>
+      <c r="E92" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>20</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>15</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6028</v>
+      </c>
+      <c r="B93">
+        <v>6000</v>
+      </c>
+      <c r="C93" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2948</v>
+      </c>
+      <c r="D93">
+        <v>75</v>
+      </c>
+      <c r="E93" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>78</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>15</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7154</v>
+      </c>
+      <c r="B94">
+        <v>7000</v>
+      </c>
+      <c r="C94" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2839</v>
+      </c>
+      <c r="D94">
+        <v>75</v>
+      </c>
+      <c r="E94" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>15</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4933</v>
+      </c>
+      <c r="B95">
+        <v>5000</v>
+      </c>
+      <c r="C95" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2536</v>
+      </c>
+      <c r="D95">
+        <v>75</v>
+      </c>
+      <c r="E95" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>80</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>15</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5890</v>
+      </c>
+      <c r="B96">
+        <v>6000</v>
+      </c>
+      <c r="C96" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2974</v>
+      </c>
+      <c r="D96">
+        <v>75</v>
+      </c>
+      <c r="E96" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>19</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>15</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7091</v>
+      </c>
+      <c r="B97">
+        <v>7000</v>
+      </c>
+      <c r="C97" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5293</v>
+      </c>
+      <c r="D97">
+        <v>75</v>
+      </c>
+      <c r="E97" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>64</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>23</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4977</v>
+      </c>
+      <c r="B98">
+        <v>5000</v>
+      </c>
+      <c r="C98" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5232</v>
+      </c>
+      <c r="D98">
+        <v>75</v>
+      </c>
+      <c r="E98" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>64</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>23</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5811</v>
+      </c>
+      <c r="B99">
+        <v>6000</v>
+      </c>
+      <c r="C99" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4061</v>
+      </c>
+      <c r="D99">
+        <v>75</v>
+      </c>
+      <c r="E99" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>66</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>23</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7071</v>
+      </c>
+      <c r="B100">
+        <v>7000</v>
+      </c>
+      <c r="C100" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4274</v>
+      </c>
+      <c r="D100">
+        <v>75</v>
+      </c>
+      <c r="E100" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>12</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>23</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5027</v>
+      </c>
+      <c r="B101">
+        <v>5000</v>
+      </c>
+      <c r="C101" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4743</v>
+      </c>
+      <c r="D101">
+        <v>75</v>
+      </c>
+      <c r="E101" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>6</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>23</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6133</v>
+      </c>
+      <c r="B102">
+        <v>6000</v>
+      </c>
+      <c r="C102" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6922</v>
+      </c>
+      <c r="D102">
+        <v>75</v>
+      </c>
+      <c r="E102" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>71</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" ref="F102:F121" ca="1" si="8">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>65</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" ref="H102:H121" ca="1" si="9">RANDBETWEEN(10,90)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6810</v>
+      </c>
+      <c r="B103">
+        <v>7000</v>
+      </c>
+      <c r="C103" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6019</v>
+      </c>
+      <c r="D103">
+        <v>75</v>
+      </c>
+      <c r="E103" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>66</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>65</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4914</v>
+      </c>
+      <c r="B104">
+        <v>5000</v>
+      </c>
+      <c r="C104" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6344</v>
+      </c>
+      <c r="D104">
+        <v>75</v>
+      </c>
+      <c r="E104" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>64</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>65</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6159</v>
+      </c>
+      <c r="B105">
+        <v>6000</v>
+      </c>
+      <c r="C105" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7460</v>
+      </c>
+      <c r="D105">
+        <v>75</v>
+      </c>
+      <c r="E105" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>76</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>65</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6899</v>
+      </c>
+      <c r="B106">
+        <v>7000</v>
+      </c>
+      <c r="C106" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6959</v>
+      </c>
+      <c r="D106">
+        <v>75</v>
+      </c>
+      <c r="E106" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>67</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>65</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4801</v>
+      </c>
+      <c r="B107">
+        <v>5000</v>
+      </c>
+      <c r="C107" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2920</v>
+      </c>
+      <c r="D107">
+        <v>150</v>
+      </c>
+      <c r="E107" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>72</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>15</v>
+      </c>
+      <c r="H107" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5818</v>
+      </c>
+      <c r="B108">
+        <v>6000</v>
+      </c>
+      <c r="C108" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2623</v>
+      </c>
+      <c r="D108">
+        <v>150</v>
+      </c>
+      <c r="E108" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>68</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>15</v>
+      </c>
+      <c r="H108" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7057</v>
+      </c>
+      <c r="B109">
+        <v>7000</v>
+      </c>
+      <c r="C109" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2394</v>
+      </c>
+      <c r="D109">
+        <v>150</v>
+      </c>
+      <c r="E109" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>62</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>15</v>
+      </c>
+      <c r="H109" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4930</v>
+      </c>
+      <c r="B110">
+        <v>5000</v>
+      </c>
+      <c r="C110" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2352</v>
+      </c>
+      <c r="D110">
+        <v>150</v>
+      </c>
+      <c r="E110" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>10</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>15</v>
+      </c>
+      <c r="H110" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6094</v>
+      </c>
+      <c r="B111">
+        <v>6000</v>
+      </c>
+      <c r="C111" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2373</v>
+      </c>
+      <c r="D111">
+        <v>150</v>
+      </c>
+      <c r="E111" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>17</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>15</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6935</v>
+      </c>
+      <c r="B112">
+        <v>7000</v>
+      </c>
+      <c r="C112" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5147</v>
+      </c>
+      <c r="D112">
+        <v>150</v>
+      </c>
+      <c r="E112" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>73</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>23</v>
+      </c>
+      <c r="H112" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>4828</v>
+      </c>
+      <c r="B113">
+        <v>5000</v>
+      </c>
+      <c r="C113" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5017</v>
+      </c>
+      <c r="D113">
+        <v>150</v>
+      </c>
+      <c r="E113" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>74</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>23</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6097</v>
+      </c>
+      <c r="B114">
+        <v>6000</v>
+      </c>
+      <c r="C114" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5120</v>
+      </c>
+      <c r="D114">
+        <v>150</v>
+      </c>
+      <c r="E114" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>60</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>23</v>
+      </c>
+      <c r="H114" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7058</v>
+      </c>
+      <c r="B115">
+        <v>7000</v>
+      </c>
+      <c r="C115" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5328</v>
+      </c>
+      <c r="D115">
+        <v>150</v>
+      </c>
+      <c r="E115" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>15</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>23</v>
+      </c>
+      <c r="H115" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5160</v>
+      </c>
+      <c r="B116">
+        <v>5000</v>
+      </c>
+      <c r="C116" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5362</v>
+      </c>
+      <c r="D116">
+        <v>150</v>
+      </c>
+      <c r="E116" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>77</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>23</v>
+      </c>
+      <c r="H116" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5996</v>
+      </c>
+      <c r="B117">
+        <v>6000</v>
+      </c>
+      <c r="C117" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6436</v>
+      </c>
+      <c r="D117">
+        <v>150</v>
+      </c>
+      <c r="E117" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>20</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>65</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7043</v>
+      </c>
+      <c r="B118">
+        <v>7000</v>
+      </c>
+      <c r="C118" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6459</v>
+      </c>
+      <c r="D118">
+        <v>150</v>
+      </c>
+      <c r="E118" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>16</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>65</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5110</v>
+      </c>
+      <c r="B119">
+        <v>5000</v>
+      </c>
+      <c r="C119" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6393</v>
+      </c>
+      <c r="D119">
+        <v>150</v>
+      </c>
+      <c r="E119" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>7</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>65</v>
+      </c>
+      <c r="H119" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>5881</v>
+      </c>
+      <c r="B120">
+        <v>6000</v>
+      </c>
+      <c r="C120" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7412</v>
+      </c>
+      <c r="D120">
+        <v>150</v>
+      </c>
+      <c r="E120" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>17</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>65</v>
+      </c>
+      <c r="H120" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>6914</v>
+      </c>
+      <c r="B121">
+        <v>7000</v>
+      </c>
+      <c r="C121" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6188</v>
+      </c>
+      <c r="D121">
+        <v>150</v>
+      </c>
+      <c r="E121" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>79</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>65</v>
+      </c>
+      <c r="H121" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74DF2B6-A4D9-4BF1-9069-CAFF3EF9864E}">
+  <dimension ref="A1:G121"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="7" width="10.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>5000</v>
+      </c>
+      <c r="B2">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2267</v>
+      </c>
+      <c r="C2">
+        <v>75</v>
+      </c>
+      <c r="D2">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E31" ca="1" si="0">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G31" ca="1" si="1">RANDBETWEEN(10,90)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>6000</v>
+      </c>
+      <c r="B3">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2696</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>69</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>7000</v>
+      </c>
+      <c r="B4">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2933</v>
+      </c>
+      <c r="C4">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5000</v>
+      </c>
+      <c r="B5">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2952</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6000</v>
+      </c>
+      <c r="B6">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2292</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7000</v>
+      </c>
+      <c r="B7">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4948</v>
+      </c>
+      <c r="C7">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5000</v>
+      </c>
+      <c r="B8">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5067</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6000</v>
+      </c>
+      <c r="B9">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4231</v>
+      </c>
+      <c r="C9">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7000</v>
+      </c>
+      <c r="B10">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4176</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>5000</v>
+      </c>
+      <c r="B11">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4291</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>69</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>23</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>6000</v>
+      </c>
+      <c r="B12">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6799</v>
+      </c>
+      <c r="C12">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>65</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>7000</v>
+      </c>
+      <c r="B13">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7170</v>
+      </c>
+      <c r="C13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>65</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>5000</v>
+      </c>
+      <c r="B14">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7111</v>
+      </c>
+      <c r="C14">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>6000</v>
+      </c>
+      <c r="B15">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6728</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>73</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>65</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>7000</v>
+      </c>
+      <c r="B16">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6304</v>
+      </c>
+      <c r="C16">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>69</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>5000</v>
+      </c>
+      <c r="B17">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2987</v>
+      </c>
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="D17">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>6000</v>
+      </c>
+      <c r="B18">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2209</v>
+      </c>
+      <c r="C18">
+        <v>150</v>
+      </c>
+      <c r="D18">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>78</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>7000</v>
+      </c>
+      <c r="B19">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2890</v>
+      </c>
+      <c r="C19">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>74</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>5000</v>
+      </c>
+      <c r="B20">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2085</v>
+      </c>
+      <c r="C20">
+        <v>150</v>
+      </c>
+      <c r="D20">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>77</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>6000</v>
+      </c>
+      <c r="B21">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2365</v>
+      </c>
+      <c r="C21">
+        <v>150</v>
+      </c>
+      <c r="D21">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>72</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>7000</v>
+      </c>
+      <c r="B22">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5454</v>
+      </c>
+      <c r="C22">
+        <v>150</v>
+      </c>
+      <c r="D22">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>23</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>5000</v>
+      </c>
+      <c r="B23">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4558</v>
+      </c>
+      <c r="C23">
+        <v>150</v>
+      </c>
+      <c r="D23">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>66</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>23</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>6000</v>
+      </c>
+      <c r="B24">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5030</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>69</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>7000</v>
+      </c>
+      <c r="B25">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4732</v>
+      </c>
+      <c r="C25">
+        <v>150</v>
+      </c>
+      <c r="D25">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>79</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>5000</v>
+      </c>
+      <c r="B26">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4390</v>
+      </c>
+      <c r="C26">
+        <v>150</v>
+      </c>
+      <c r="D26">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>6000</v>
+      </c>
+      <c r="B27">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6240</v>
+      </c>
+      <c r="C27">
+        <v>150</v>
+      </c>
+      <c r="D27">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>65</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>7000</v>
+      </c>
+      <c r="B28">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7167</v>
+      </c>
+      <c r="C28">
+        <v>150</v>
+      </c>
+      <c r="D28">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>65</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>5000</v>
+      </c>
+      <c r="B29">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6484</v>
+      </c>
+      <c r="C29">
+        <v>150</v>
+      </c>
+      <c r="D29">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>65</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>65</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>6000</v>
+      </c>
+      <c r="B30">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6006</v>
+      </c>
+      <c r="C30">
+        <v>150</v>
+      </c>
+      <c r="D30">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>65</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>7000</v>
+      </c>
+      <c r="B31">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7479</v>
+      </c>
+      <c r="C31">
+        <v>150</v>
+      </c>
+      <c r="D31">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>65</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>5000</v>
+      </c>
+      <c r="B32" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2138</v>
+      </c>
+      <c r="C32">
+        <v>75</v>
+      </c>
+      <c r="D32" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" ref="E32:E63" ca="1" si="2">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" ref="G32:G63" ca="1" si="3">RANDBETWEEN(10,90)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>6000</v>
+      </c>
+      <c r="B33" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2068</v>
+      </c>
+      <c r="C33">
+        <v>75</v>
+      </c>
+      <c r="D33" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>11</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>7000</v>
+      </c>
+      <c r="B34" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2242</v>
+      </c>
+      <c r="C34">
+        <v>75</v>
+      </c>
+      <c r="D34" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>68</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>5000</v>
+      </c>
+      <c r="B35" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2510</v>
+      </c>
+      <c r="C35">
+        <v>75</v>
+      </c>
+      <c r="D35" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>80</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>6000</v>
+      </c>
+      <c r="B36" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2852</v>
+      </c>
+      <c r="C36">
+        <v>75</v>
+      </c>
+      <c r="D36" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>78</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>7000</v>
+      </c>
+      <c r="B37" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4047</v>
+      </c>
+      <c r="C37">
+        <v>75</v>
+      </c>
+      <c r="D37" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>15</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>23</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>5000</v>
+      </c>
+      <c r="B38" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4108</v>
+      </c>
+      <c r="C38">
+        <v>75</v>
+      </c>
+      <c r="D38" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>7</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>23</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>6000</v>
+      </c>
+      <c r="B39" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4061</v>
+      </c>
+      <c r="C39">
+        <v>75</v>
+      </c>
+      <c r="D39" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>23</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>7000</v>
+      </c>
+      <c r="B40" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5353</v>
+      </c>
+      <c r="C40">
+        <v>75</v>
+      </c>
+      <c r="D40" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>67</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>23</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>5000</v>
+      </c>
+      <c r="B41" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4779</v>
+      </c>
+      <c r="C41">
+        <v>75</v>
+      </c>
+      <c r="D41" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>8</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>23</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>6000</v>
+      </c>
+      <c r="B42" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7228</v>
+      </c>
+      <c r="C42">
+        <v>75</v>
+      </c>
+      <c r="D42" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>65</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>65</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>7000</v>
+      </c>
+      <c r="B43" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7028</v>
+      </c>
+      <c r="C43">
+        <v>75</v>
+      </c>
+      <c r="D43" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>17</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>65</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>5000</v>
+      </c>
+      <c r="B44" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6735</v>
+      </c>
+      <c r="C44">
+        <v>75</v>
+      </c>
+      <c r="D44" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>60</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>65</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>6000</v>
+      </c>
+      <c r="B45" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6147</v>
+      </c>
+      <c r="C45">
+        <v>75</v>
+      </c>
+      <c r="D45" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>16</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>65</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>7000</v>
+      </c>
+      <c r="B46" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7208</v>
+      </c>
+      <c r="C46">
+        <v>75</v>
+      </c>
+      <c r="D46" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>19</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>65</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>5000</v>
+      </c>
+      <c r="B47" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2924</v>
+      </c>
+      <c r="C47">
+        <v>150</v>
+      </c>
+      <c r="D47" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>8</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>6000</v>
+      </c>
+      <c r="B48" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2295</v>
+      </c>
+      <c r="C48">
+        <v>150</v>
+      </c>
+      <c r="D48" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>68</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>7000</v>
+      </c>
+      <c r="B49" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2069</v>
+      </c>
+      <c r="C49">
+        <v>150</v>
+      </c>
+      <c r="D49" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>70</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>5000</v>
+      </c>
+      <c r="B50" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2250</v>
+      </c>
+      <c r="C50">
+        <v>150</v>
+      </c>
+      <c r="D50" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>16</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>6000</v>
+      </c>
+      <c r="B51" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2358</v>
+      </c>
+      <c r="C51">
+        <v>150</v>
+      </c>
+      <c r="D51" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>77</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>15</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>7000</v>
+      </c>
+      <c r="B52" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4384</v>
+      </c>
+      <c r="C52">
+        <v>150</v>
+      </c>
+      <c r="D52" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>19</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>23</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>5000</v>
+      </c>
+      <c r="B53" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5287</v>
+      </c>
+      <c r="C53">
+        <v>150</v>
+      </c>
+      <c r="D53" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>17</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>23</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>6000</v>
+      </c>
+      <c r="B54" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4861</v>
+      </c>
+      <c r="C54">
+        <v>150</v>
+      </c>
+      <c r="D54" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>16</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>23</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>7000</v>
+      </c>
+      <c r="B55" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4602</v>
+      </c>
+      <c r="C55">
+        <v>150</v>
+      </c>
+      <c r="D55" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>72</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>23</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>5000</v>
+      </c>
+      <c r="B56" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4121</v>
+      </c>
+      <c r="C56">
+        <v>150</v>
+      </c>
+      <c r="D56" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>67</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>23</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>6000</v>
+      </c>
+      <c r="B57" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6652</v>
+      </c>
+      <c r="C57">
+        <v>150</v>
+      </c>
+      <c r="D57" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>65</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>7000</v>
+      </c>
+      <c r="B58" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6572</v>
+      </c>
+      <c r="C58">
+        <v>150</v>
+      </c>
+      <c r="D58" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>71</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>65</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>5000</v>
+      </c>
+      <c r="B59" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7431</v>
+      </c>
+      <c r="C59">
+        <v>150</v>
+      </c>
+      <c r="D59" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>67</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>65</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>6000</v>
+      </c>
+      <c r="B60" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6345</v>
+      </c>
+      <c r="C60">
+        <v>150</v>
+      </c>
+      <c r="D60" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>64</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>65</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>7000</v>
+      </c>
+      <c r="B61" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6077</v>
+      </c>
+      <c r="C61">
+        <v>150</v>
+      </c>
+      <c r="D61" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>78</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>65</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>5000</v>
+      </c>
+      <c r="B62" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2938</v>
+      </c>
+      <c r="C62">
+        <v>75</v>
+      </c>
+      <c r="D62" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>4</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>6000</v>
+      </c>
+      <c r="B63" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2936</v>
+      </c>
+      <c r="C63">
+        <v>75</v>
+      </c>
+      <c r="D63" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>68</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>15</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>7000</v>
+      </c>
+      <c r="B64" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2801</v>
+      </c>
+      <c r="C64">
+        <v>75</v>
+      </c>
+      <c r="D64" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>63</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" ref="E64:E95" ca="1" si="4">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>15</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" ref="G64:G95" ca="1" si="5">RANDBETWEEN(10,90)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>5000</v>
+      </c>
+      <c r="B65" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2309</v>
+      </c>
+      <c r="C65">
+        <v>75</v>
+      </c>
+      <c r="D65" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>15</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>6000</v>
+      </c>
+      <c r="B66" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2246</v>
+      </c>
+      <c r="C66">
+        <v>75</v>
+      </c>
+      <c r="D66" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>78</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>15</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>7000</v>
+      </c>
+      <c r="B67" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4615</v>
+      </c>
+      <c r="C67">
+        <v>75</v>
+      </c>
+      <c r="D67" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>75</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>23</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>5000</v>
+      </c>
+      <c r="B68" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5072</v>
+      </c>
+      <c r="C68">
+        <v>75</v>
+      </c>
+      <c r="D68" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>7</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>23</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>6000</v>
+      </c>
+      <c r="B69" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5215</v>
+      </c>
+      <c r="C69">
+        <v>75</v>
+      </c>
+      <c r="D69" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>12</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>23</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>7000</v>
+      </c>
+      <c r="B70" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5439</v>
+      </c>
+      <c r="C70">
+        <v>75</v>
+      </c>
+      <c r="D70" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>65</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>23</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>5000</v>
+      </c>
+      <c r="B71" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4730</v>
+      </c>
+      <c r="C71">
+        <v>75</v>
+      </c>
+      <c r="D71" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>23</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>6000</v>
+      </c>
+      <c r="B72" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6796</v>
+      </c>
+      <c r="C72">
+        <v>75</v>
+      </c>
+      <c r="D72" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>64</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>65</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>7000</v>
+      </c>
+      <c r="B73" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7085</v>
+      </c>
+      <c r="C73">
+        <v>75</v>
+      </c>
+      <c r="D73" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>18</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>65</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>5000</v>
+      </c>
+      <c r="B74" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6800</v>
+      </c>
+      <c r="C74">
+        <v>75</v>
+      </c>
+      <c r="D74" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>78</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>65</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>6000</v>
+      </c>
+      <c r="B75" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7138</v>
+      </c>
+      <c r="C75">
+        <v>75</v>
+      </c>
+      <c r="D75" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>60</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>65</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>7000</v>
+      </c>
+      <c r="B76" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6079</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>5</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>65</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>5000</v>
+      </c>
+      <c r="B77" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2098</v>
+      </c>
+      <c r="C77">
+        <v>150</v>
+      </c>
+      <c r="D77" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>62</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>15</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>6000</v>
+      </c>
+      <c r="B78" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2620</v>
+      </c>
+      <c r="C78">
+        <v>150</v>
+      </c>
+      <c r="D78" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>6</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>15</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>7000</v>
+      </c>
+      <c r="B79" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2480</v>
+      </c>
+      <c r="C79">
+        <v>150</v>
+      </c>
+      <c r="D79" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>14</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>15</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>5000</v>
+      </c>
+      <c r="B80" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2943</v>
+      </c>
+      <c r="C80">
+        <v>150</v>
+      </c>
+      <c r="D80" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>16</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>15</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>6000</v>
+      </c>
+      <c r="B81" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2750</v>
+      </c>
+      <c r="C81">
+        <v>150</v>
+      </c>
+      <c r="D81" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>15</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>7000</v>
+      </c>
+      <c r="B82" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4814</v>
+      </c>
+      <c r="C82">
+        <v>150</v>
+      </c>
+      <c r="D82" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>75</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>23</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>5000</v>
+      </c>
+      <c r="B83" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4498</v>
+      </c>
+      <c r="C83">
+        <v>150</v>
+      </c>
+      <c r="D83" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>68</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>23</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>6000</v>
+      </c>
+      <c r="B84" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4071</v>
+      </c>
+      <c r="C84">
+        <v>150</v>
+      </c>
+      <c r="D84" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>18</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>23</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>7000</v>
+      </c>
+      <c r="B85" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5025</v>
+      </c>
+      <c r="C85">
+        <v>150</v>
+      </c>
+      <c r="D85" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>68</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>23</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>5000</v>
+      </c>
+      <c r="B86" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5148</v>
+      </c>
+      <c r="C86">
+        <v>150</v>
+      </c>
+      <c r="D86" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>70</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>23</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>6000</v>
+      </c>
+      <c r="B87" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6723</v>
+      </c>
+      <c r="C87">
+        <v>150</v>
+      </c>
+      <c r="D87" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>20</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>65</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>7000</v>
+      </c>
+      <c r="B88" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6677</v>
+      </c>
+      <c r="C88">
+        <v>150</v>
+      </c>
+      <c r="D88" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>72</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>65</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>5000</v>
+      </c>
+      <c r="B89" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6884</v>
+      </c>
+      <c r="C89">
+        <v>150</v>
+      </c>
+      <c r="D89" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>18</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>65</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>6000</v>
+      </c>
+      <c r="B90" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7126</v>
+      </c>
+      <c r="C90">
+        <v>150</v>
+      </c>
+      <c r="D90" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>69</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>65</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>7000</v>
+      </c>
+      <c r="B91" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6884</v>
+      </c>
+      <c r="C91">
+        <v>150</v>
+      </c>
+      <c r="D91" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>17</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>65</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>5000</v>
+      </c>
+      <c r="B92" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2636</v>
+      </c>
+      <c r="C92">
+        <v>75</v>
+      </c>
+      <c r="D92" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>4</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>15</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>6000</v>
+      </c>
+      <c r="B93" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2777</v>
+      </c>
+      <c r="C93">
+        <v>75</v>
+      </c>
+      <c r="D93" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>15</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>7000</v>
+      </c>
+      <c r="B94" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2778</v>
+      </c>
+      <c r="C94">
+        <v>75</v>
+      </c>
+      <c r="D94" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>75</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>15</v>
+      </c>
+      <c r="G94" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>5000</v>
+      </c>
+      <c r="B95" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2022</v>
+      </c>
+      <c r="C95">
+        <v>75</v>
+      </c>
+      <c r="D95" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>12</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>15</v>
+      </c>
+      <c r="G95" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>6000</v>
+      </c>
+      <c r="B96" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2174</v>
+      </c>
+      <c r="C96">
+        <v>75</v>
+      </c>
+      <c r="D96" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>80</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" ref="E96:E101" ca="1" si="6">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>15</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" ref="G96:G101" ca="1" si="7">RANDBETWEEN(10,90)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>7000</v>
+      </c>
+      <c r="B97" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5207</v>
+      </c>
+      <c r="C97">
+        <v>75</v>
+      </c>
+      <c r="D97" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>9</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>23</v>
+      </c>
+      <c r="G97" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>5000</v>
+      </c>
+      <c r="B98" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5061</v>
+      </c>
+      <c r="C98">
+        <v>75</v>
+      </c>
+      <c r="D98" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>14</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>23</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>6000</v>
+      </c>
+      <c r="B99" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4202</v>
+      </c>
+      <c r="C99">
+        <v>75</v>
+      </c>
+      <c r="D99" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>67</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>23</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>7000</v>
+      </c>
+      <c r="B100" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4258</v>
+      </c>
+      <c r="C100">
+        <v>75</v>
+      </c>
+      <c r="D100" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>23</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>5000</v>
+      </c>
+      <c r="B101" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5302</v>
+      </c>
+      <c r="C101">
+        <v>75</v>
+      </c>
+      <c r="D101" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>23</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>6000</v>
+      </c>
+      <c r="B102" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6318</v>
+      </c>
+      <c r="C102">
+        <v>75</v>
+      </c>
+      <c r="D102" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>71</v>
+      </c>
+      <c r="E102" s="1">
+        <f t="shared" ref="E102:E106" ca="1" si="8">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>65</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" ref="G102:G106" ca="1" si="9">RANDBETWEEN(10,90)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>7000</v>
+      </c>
+      <c r="B103" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6894</v>
+      </c>
+      <c r="C103">
+        <v>75</v>
+      </c>
+      <c r="D103" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>19</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>65</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>5000</v>
+      </c>
+      <c r="B104" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6733</v>
+      </c>
+      <c r="C104">
+        <v>75</v>
+      </c>
+      <c r="D104" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>12</v>
+      </c>
+      <c r="E104" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>65</v>
+      </c>
+      <c r="G104" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>6000</v>
+      </c>
+      <c r="B105" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6525</v>
+      </c>
+      <c r="C105">
+        <v>75</v>
+      </c>
+      <c r="D105" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>6</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>65</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>7000</v>
+      </c>
+      <c r="B106" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7211</v>
+      </c>
+      <c r="C106">
+        <v>75</v>
+      </c>
+      <c r="D106" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>16</v>
+      </c>
+      <c r="E106" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>65</v>
+      </c>
+      <c r="G106" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>5000</v>
+      </c>
+      <c r="B107" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2776</v>
+      </c>
+      <c r="C107">
+        <v>150</v>
+      </c>
+      <c r="D107" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>61</v>
+      </c>
+      <c r="E107" s="1">
+        <f t="shared" ref="E107:E121" ca="1" si="10">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>15</v>
+      </c>
+      <c r="G107" s="1">
+        <f t="shared" ref="G107:G121" ca="1" si="11">RANDBETWEEN(10,90)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>6000</v>
+      </c>
+      <c r="B108" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2903</v>
+      </c>
+      <c r="C108">
+        <v>150</v>
+      </c>
+      <c r="D108" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>65</v>
+      </c>
+      <c r="E108" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>15</v>
+      </c>
+      <c r="G108" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>7000</v>
+      </c>
+      <c r="B109" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2605</v>
+      </c>
+      <c r="C109">
+        <v>150</v>
+      </c>
+      <c r="D109" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>18</v>
+      </c>
+      <c r="E109" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>15</v>
+      </c>
+      <c r="G109" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>5000</v>
+      </c>
+      <c r="B110" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2301</v>
+      </c>
+      <c r="C110">
+        <v>150</v>
+      </c>
+      <c r="D110" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>73</v>
+      </c>
+      <c r="E110" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>15</v>
+      </c>
+      <c r="G110" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>6000</v>
+      </c>
+      <c r="B111" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2165</v>
+      </c>
+      <c r="C111">
+        <v>150</v>
+      </c>
+      <c r="D111" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>17</v>
+      </c>
+      <c r="E111" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>15</v>
+      </c>
+      <c r="G111" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>7000</v>
+      </c>
+      <c r="B112" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5246</v>
+      </c>
+      <c r="C112">
+        <v>150</v>
+      </c>
+      <c r="D112" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>65</v>
+      </c>
+      <c r="E112" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>23</v>
+      </c>
+      <c r="G112" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>5000</v>
+      </c>
+      <c r="B113" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4669</v>
+      </c>
+      <c r="C113">
+        <v>150</v>
+      </c>
+      <c r="D113" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>66</v>
+      </c>
+      <c r="E113" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>23</v>
+      </c>
+      <c r="G113" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>6000</v>
+      </c>
+      <c r="B114" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5218</v>
+      </c>
+      <c r="C114">
+        <v>150</v>
+      </c>
+      <c r="D114" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>4</v>
+      </c>
+      <c r="E114" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>23</v>
+      </c>
+      <c r="G114" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>7000</v>
+      </c>
+      <c r="B115" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>4394</v>
+      </c>
+      <c r="C115">
+        <v>150</v>
+      </c>
+      <c r="D115" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>13</v>
+      </c>
+      <c r="E115" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>23</v>
+      </c>
+      <c r="G115" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>5000</v>
+      </c>
+      <c r="B116" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5278</v>
+      </c>
+      <c r="C116">
+        <v>150</v>
+      </c>
+      <c r="D116" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>15</v>
+      </c>
+      <c r="E116" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>23</v>
+      </c>
+      <c r="G116" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>6000</v>
+      </c>
+      <c r="B117" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6886</v>
+      </c>
+      <c r="C117">
+        <v>150</v>
+      </c>
+      <c r="D117" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>7</v>
+      </c>
+      <c r="E117" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>65</v>
+      </c>
+      <c r="G117" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>7000</v>
+      </c>
+      <c r="B118" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6454</v>
+      </c>
+      <c r="C118">
+        <v>150</v>
+      </c>
+      <c r="D118" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>18</v>
+      </c>
+      <c r="E118" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>65</v>
+      </c>
+      <c r="G118" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>5000</v>
+      </c>
+      <c r="B119" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7110</v>
+      </c>
+      <c r="C119">
+        <v>150</v>
+      </c>
+      <c r="D119" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>70</v>
+      </c>
+      <c r="E119" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>65</v>
+      </c>
+      <c r="G119" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>6000</v>
+      </c>
+      <c r="B120" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6936</v>
+      </c>
+      <c r="C120">
+        <v>150</v>
+      </c>
+      <c r="D120" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>19</v>
+      </c>
+      <c r="E120" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>65</v>
+      </c>
+      <c r="G120" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>7000</v>
+      </c>
+      <c r="B121" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6154</v>
+      </c>
+      <c r="C121">
+        <v>150</v>
+      </c>
+      <c r="D121" s="1">
+        <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>17</v>
+      </c>
+      <c r="E121" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>65</v>
+      </c>
+      <c r="G121" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
